--- a/public/doc/积分模板.xlsx
+++ b/public/doc/积分模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\cbpc_young\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AD154F-0D48-4751-B76C-0639AB68C1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AAC78-D051-404A-A112-2894D6BD3BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4230" windowWidth="21510" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="岗位业绩积分" sheetId="2" r:id="rId1"/>
@@ -653,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="D9:E12"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
       <formula1>7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{CB5AE158-53D1-423F-8DDF-F71001A404D2}">
-      <formula1>"印钞数管部,胶凹团支部,印码制作部,检封制作部,钞纸制作部,钞纸成品制作部,印钞管理部,钞纸管理部,设备管理部,能源环保部,人力资源部,安全保卫部,技术中心,金鼎公司,长城团总支,物业公司"</formula1>
+      <formula1>"办公室,企划信息部,计划财务部,印钞管理部,钞纸管理部,安全保卫部,设备管理部,物资管理部,技术中心,基建与行政事务部,党委组织部(人力资源部),党委宣传部(企业文化部),纪检监察内审部,群工部,数管制作部,胶凹制作部,印码制作部,检封制作部,钞纸制作部,钞纸成品制作部,能源环保部,市场开发部,采购管理部,中钞长城公司,金鼎公司,物业公司,中钞金服"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"印钞数管部,胶凹团支部,印码制作部,检封制作部,钞纸制作部,钞纸成品制作部,印钞管理部,钞纸管理部,设备管理部,能源环保部,人力资源部,安全保卫部,技术中心,金鼎公司,长城团总支,物业公司"</formula1>
+      <formula1>"办公室,企划信息部,计划财务部,印钞管理部,钞纸管理部,安全保卫部,设备管理部,物资管理部,技术中心,基建与行政事务部,党委组织部(人力资源部),党委宣传部(企业文化部),纪检监察内审部,群工部,数管制作部,胶凹制作部,印码制作部,检封制作部,钞纸制作部,钞纸成品制作部,能源环保部,市场开发部,采购管理部,中钞长城公司,金鼎公司,物业公司,中钞金服"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"能力素质积分,活动积分,组织公民行为积分,技术、创新成果"</formula1>
